--- a/ApolloQA/Data/RatingManual/GA/VA00049.RadiusFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/VA00049.RadiusFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.RadiusFactors" sheetId="1" r:id="Rcd38c9041da94465"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00049.RadiusFactors" sheetId="1" r:id="Ra689420a89bb4b53"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -40,7 +40,7 @@
         <x:v>300</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1000</x:v>
+        <x:v>1.0000</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -51,7 +51,7 @@
         <x:v>500</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2235</x:v>
+        <x:v>1.1203</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -62,7 +62,7 @@
         <x:v>+</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2235</x:v>
+        <x:v>1.2050</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
